--- a/Code/Results/Cases/Case_1_115/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_115/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7171761120149824</v>
+        <v>0.5815181101805535</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1109621721340446</v>
+        <v>0.2585116795059861</v>
       </c>
       <c r="E2">
-        <v>0.09528943864340356</v>
+        <v>0.2504505179193277</v>
       </c>
       <c r="F2">
-        <v>0.5786323093210228</v>
+        <v>1.33774720881091</v>
       </c>
       <c r="G2">
-        <v>0.3305365933791862</v>
+        <v>0.6868381412083053</v>
       </c>
       <c r="H2">
-        <v>0.3078118824633407</v>
+        <v>0.8055745026540748</v>
       </c>
       <c r="I2">
-        <v>0.4591832728336573</v>
+        <v>1.157644453926373</v>
       </c>
       <c r="J2">
-        <v>0.1415956651709713</v>
+        <v>0.312528921303679</v>
       </c>
       <c r="K2">
-        <v>1.240835538944197</v>
+        <v>0.3800897071573388</v>
       </c>
       <c r="L2">
-        <v>0.2169330176958795</v>
+        <v>0.1607306500851848</v>
       </c>
       <c r="M2">
-        <v>0.2028411108409998</v>
+        <v>0.1588489397610502</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.292578852389028</v>
+        <v>2.982339016526595</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6287578014977555</v>
+        <v>0.5566730394012609</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1073314561376009</v>
+        <v>0.2587358577120114</v>
       </c>
       <c r="E3">
-        <v>0.09764541044961916</v>
+        <v>0.2521297022437388</v>
       </c>
       <c r="F3">
-        <v>0.5764573200005998</v>
+        <v>1.34631862052656</v>
       </c>
       <c r="G3">
-        <v>0.3279222393020262</v>
+        <v>0.6917785700691326</v>
       </c>
       <c r="H3">
-        <v>0.3120174117722954</v>
+        <v>0.8114068353509651</v>
       </c>
       <c r="I3">
-        <v>0.4795453263396112</v>
+        <v>1.170057035121193</v>
       </c>
       <c r="J3">
-        <v>0.1446799084113053</v>
+        <v>0.3142794482466726</v>
       </c>
       <c r="K3">
-        <v>1.097701572312957</v>
+        <v>0.3330988359335549</v>
       </c>
       <c r="L3">
-        <v>0.1896916697637607</v>
+        <v>0.1530883114357664</v>
       </c>
       <c r="M3">
-        <v>0.1776429082075666</v>
+        <v>0.1517705615187026</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.295510487846968</v>
+        <v>3.004785143557854</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5745949456088795</v>
+        <v>0.5415558991641944</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1051991084197468</v>
+        <v>0.258953428226107</v>
       </c>
       <c r="E4">
-        <v>0.09917815620293879</v>
+        <v>0.2532249301666196</v>
       </c>
       <c r="F4">
-        <v>0.5761092737962556</v>
+        <v>1.352193804510605</v>
       </c>
       <c r="G4">
-        <v>0.3270387421025234</v>
+        <v>0.6952058585001524</v>
       </c>
       <c r="H4">
-        <v>0.3150592003514774</v>
+        <v>0.8152900886719507</v>
       </c>
       <c r="I4">
-        <v>0.4928090933380194</v>
+        <v>1.178141614937447</v>
       </c>
       <c r="J4">
-        <v>0.1466661729740917</v>
+        <v>0.3154182300694632</v>
       </c>
       <c r="K4">
-        <v>1.009643377347885</v>
+        <v>0.3041096839027091</v>
       </c>
       <c r="L4">
-        <v>0.1730021319984445</v>
+        <v>0.1484309459015094</v>
       </c>
       <c r="M4">
-        <v>0.1622059120331514</v>
+        <v>0.1474609386160033</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.299794174210618</v>
+        <v>3.020026365641769</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5525497869464289</v>
+        <v>0.5354308082936541</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1043540109794279</v>
+        <v>0.2590622571117152</v>
       </c>
       <c r="E5">
-        <v>0.09982426553366919</v>
+        <v>0.2536874194897627</v>
       </c>
       <c r="F5">
-        <v>0.5762081089388573</v>
+        <v>1.354742128808944</v>
       </c>
       <c r="G5">
-        <v>0.3268533602901584</v>
+        <v>0.6967015723532413</v>
       </c>
       <c r="H5">
-        <v>0.3164113611106458</v>
+        <v>0.8169486217998738</v>
       </c>
       <c r="I5">
-        <v>0.498401774722721</v>
+        <v>1.181552702370166</v>
       </c>
       <c r="J5">
-        <v>0.1474987591893449</v>
+        <v>0.3158984092880495</v>
       </c>
       <c r="K5">
-        <v>0.9737087632089754</v>
+        <v>0.2922628479828973</v>
       </c>
       <c r="L5">
-        <v>0.1662085009050713</v>
+        <v>0.1465420147388272</v>
       </c>
       <c r="M5">
-        <v>0.1559224515248552</v>
+        <v>0.1457140838088655</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.302143653706594</v>
+        <v>3.026604466560215</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5488906700846599</v>
+        <v>0.5344158895120188</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1042151089254091</v>
+        <v>0.2590815481550237</v>
       </c>
       <c r="E6">
-        <v>0.09993284548164816</v>
+        <v>0.2537651933327747</v>
       </c>
       <c r="F6">
-        <v>0.5762388388270878</v>
+        <v>1.355174590751155</v>
       </c>
       <c r="G6">
-        <v>0.3268329316112997</v>
+        <v>0.6969559187308789</v>
       </c>
       <c r="H6">
-        <v>0.3166426033934187</v>
+        <v>0.817228617430608</v>
       </c>
       <c r="I6">
-        <v>0.499341654592337</v>
+        <v>1.182126152826072</v>
       </c>
       <c r="J6">
-        <v>0.1476384059132343</v>
+        <v>0.3159791171116169</v>
       </c>
       <c r="K6">
-        <v>0.9677386323588451</v>
+        <v>0.2902936894773234</v>
       </c>
       <c r="L6">
-        <v>0.1650808266916286</v>
+        <v>0.1462289066227171</v>
       </c>
       <c r="M6">
-        <v>0.1548794824609843</v>
+        <v>0.1454245895884476</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.302569664350429</v>
+        <v>3.027718939238994</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5742975355750559</v>
+        <v>0.5414731504479846</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1051876152395721</v>
+        <v>0.2589548141811662</v>
       </c>
       <c r="E7">
-        <v>0.09918678300870543</v>
+        <v>0.2532311019256479</v>
       </c>
       <c r="F7">
-        <v>0.5761096421261769</v>
+        <v>1.352227547772777</v>
       </c>
       <c r="G7">
-        <v>0.3270355436550005</v>
+        <v>0.6952256290655967</v>
       </c>
       <c r="H7">
-        <v>0.3150769839396759</v>
+        <v>0.8153121480801389</v>
       </c>
       <c r="I7">
-        <v>0.492883763662272</v>
+        <v>1.178187146020971</v>
       </c>
       <c r="J7">
-        <v>0.1466773078470975</v>
+        <v>0.315424640632596</v>
       </c>
       <c r="K7">
-        <v>1.009158962181573</v>
+        <v>0.3039500479681578</v>
       </c>
       <c r="L7">
-        <v>0.1729104826299732</v>
+        <v>0.1484054345218908</v>
       </c>
       <c r="M7">
-        <v>0.1621211437064574</v>
+        <v>0.1474373418371329</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.29982344190627</v>
+        <v>3.020113593185641</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6866600574554411</v>
+        <v>0.5729232778226674</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1096898625240001</v>
+        <v>0.2585724292192921</v>
       </c>
       <c r="E8">
-        <v>0.0960837928654561</v>
+        <v>0.2510161942537454</v>
       </c>
       <c r="F8">
-        <v>0.5776727528747827</v>
+        <v>1.340575650025499</v>
       </c>
       <c r="G8">
-        <v>0.3294811699272344</v>
+        <v>0.6884598763776992</v>
       </c>
       <c r="H8">
-        <v>0.3091647466292002</v>
+        <v>0.8075228286552445</v>
       </c>
       <c r="I8">
-        <v>0.4660437172389766</v>
+        <v>1.161828222301992</v>
       </c>
       <c r="J8">
-        <v>0.1426398477877147</v>
+        <v>0.3131192512326528</v>
       </c>
       <c r="K8">
-        <v>1.191514789506556</v>
+        <v>0.3639160766316536</v>
       </c>
       <c r="L8">
-        <v>0.2075314790098162</v>
+        <v>0.1580883921277803</v>
       </c>
       <c r="M8">
-        <v>0.1941446053220908</v>
+        <v>0.1564008301317301</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.293061482371229</v>
+        <v>2.989775731013623</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9082609157657373</v>
+        <v>0.6356671859668097</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1193129267024489</v>
+        <v>0.2584538320829211</v>
       </c>
       <c r="E9">
-        <v>0.09069008127598011</v>
+        <v>0.2471807661358874</v>
       </c>
       <c r="F9">
-        <v>0.5889321974978969</v>
+        <v>1.322577531411817</v>
       </c>
       <c r="G9">
-        <v>0.3403259953510371</v>
+        <v>0.6783162201414186</v>
       </c>
       <c r="H9">
-        <v>0.3013567355561833</v>
+        <v>0.794641647540864</v>
       </c>
       <c r="I9">
-        <v>0.4196312430794862</v>
+        <v>1.133419866862649</v>
       </c>
       <c r="J9">
-        <v>0.1354610544863206</v>
+        <v>0.3091042017560053</v>
       </c>
       <c r="K9">
-        <v>1.548073620647955</v>
+        <v>0.4803950727335859</v>
       </c>
       <c r="L9">
-        <v>0.2758018775944748</v>
+        <v>0.1773485178225656</v>
       </c>
       <c r="M9">
-        <v>0.2572938983474238</v>
+        <v>0.1742617088171912</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.300483748618134</v>
+        <v>2.941851184812904</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.072229944345253</v>
+        <v>0.6823911418564421</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1269043504941223</v>
+        <v>0.2587478496193043</v>
       </c>
       <c r="E10">
-        <v>0.08715930580091324</v>
+        <v>0.2446705834939369</v>
       </c>
       <c r="F10">
-        <v>0.6027235626011205</v>
+        <v>1.31230270952058</v>
       </c>
       <c r="G10">
-        <v>0.3524510922550377</v>
+        <v>0.6727672270417742</v>
       </c>
       <c r="H10">
-        <v>0.2981310102482837</v>
+        <v>0.7866317122508093</v>
       </c>
       <c r="I10">
-        <v>0.38958174657966</v>
+        <v>1.114780638764771</v>
       </c>
       <c r="J10">
-        <v>0.1306433790455337</v>
+        <v>0.3064604454918385</v>
       </c>
       <c r="K10">
-        <v>1.809924854708214</v>
+        <v>0.5652597741511443</v>
       </c>
       <c r="L10">
-        <v>0.3263239316105171</v>
+        <v>0.1916576541371313</v>
       </c>
       <c r="M10">
-        <v>0.3040189789293635</v>
+        <v>0.1875497848670022</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.31996705537685</v>
+        <v>2.913680346266389</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.147168607483735</v>
+        <v>0.7037777035786519</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1304797623318024</v>
+        <v>0.258963603890848</v>
       </c>
       <c r="E11">
-        <v>0.08564927551881052</v>
+        <v>0.2435950295724671</v>
       </c>
       <c r="F11">
-        <v>0.6103181436008072</v>
+        <v>1.308266770087684</v>
       </c>
       <c r="G11">
-        <v>0.3589796385316788</v>
+        <v>0.6706560248781628</v>
       </c>
       <c r="H11">
-        <v>0.2972562133376329</v>
+        <v>0.7833023529919245</v>
       </c>
       <c r="I11">
-        <v>0.3768503987028176</v>
+        <v>1.106784662522516</v>
       </c>
       <c r="J11">
-        <v>0.1285522943791193</v>
+        <v>0.3053237203757995</v>
       </c>
       <c r="K11">
-        <v>1.929148971183679</v>
+        <v>0.6037056947639599</v>
       </c>
       <c r="L11">
-        <v>0.3494184044462116</v>
+        <v>0.1982003169178626</v>
       </c>
       <c r="M11">
-        <v>0.3253743327773932</v>
+        <v>0.1936294231066711</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.332209369458354</v>
+        <v>2.902390605937569</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.175603945463507</v>
+        <v>0.7118946106535304</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1318519670179654</v>
+        <v>0.2590570291962706</v>
       </c>
       <c r="E12">
-        <v>0.08509150510962815</v>
+        <v>0.2431972532874198</v>
       </c>
       <c r="F12">
-        <v>0.6133946913482831</v>
+        <v>1.306830067675527</v>
       </c>
       <c r="G12">
-        <v>0.3616071532310485</v>
+        <v>0.6699159460672064</v>
       </c>
       <c r="H12">
-        <v>0.2970143737589126</v>
+        <v>0.7820867339534061</v>
       </c>
       <c r="I12">
-        <v>0.3721695943119023</v>
+        <v>1.103826183464442</v>
       </c>
       <c r="J12">
-        <v>0.127775043290816</v>
+        <v>0.3049027173421575</v>
       </c>
       <c r="K12">
-        <v>1.974322063740942</v>
+        <v>0.6182405071879202</v>
       </c>
       <c r="L12">
-        <v>0.3581824620916336</v>
+        <v>0.2006825007984361</v>
       </c>
       <c r="M12">
-        <v>0.3334777466016305</v>
+        <v>0.1959364816366786</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.33736051376377</v>
+        <v>2.89833459457148</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.169477194375901</v>
+        <v>0.7101456866970466</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1315556134931768</v>
+        <v>0.2590363880500348</v>
       </c>
       <c r="E13">
-        <v>0.0852110026645061</v>
+        <v>0.2432824988799185</v>
       </c>
       <c r="F13">
-        <v>0.612723000898221</v>
+        <v>1.307135414674789</v>
       </c>
       <c r="G13">
-        <v>0.3610342042265131</v>
+        <v>0.6700726941725605</v>
       </c>
       <c r="H13">
-        <v>0.2970624112105185</v>
+        <v>0.7823465329469599</v>
       </c>
       <c r="I13">
-        <v>0.3731713620286072</v>
+        <v>1.104460257957044</v>
       </c>
       <c r="J13">
-        <v>0.1279417866053691</v>
+        <v>0.3049929680730923</v>
       </c>
       <c r="K13">
-        <v>1.964591925793599</v>
+        <v>0.6151112490206856</v>
       </c>
       <c r="L13">
-        <v>0.3562940910561139</v>
+        <v>0.200147715473193</v>
       </c>
       <c r="M13">
-        <v>0.3317317556567261</v>
+        <v>0.1954394032287823</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.336227721776368</v>
+        <v>2.899198384347471</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.149506798287376</v>
+        <v>0.7044451237258613</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1305922839111346</v>
+        <v>0.2589710554741629</v>
       </c>
       <c r="E14">
-        <v>0.08560310462538467</v>
+        <v>0.2435621137852308</v>
       </c>
       <c r="F14">
-        <v>0.6105671682797293</v>
+        <v>1.308146736323238</v>
       </c>
       <c r="G14">
-        <v>0.3591926360397437</v>
+        <v>0.6705939479939218</v>
       </c>
       <c r="H14">
-        <v>0.2972344997851195</v>
+        <v>0.7832014390874349</v>
       </c>
       <c r="I14">
-        <v>0.3764624630140272</v>
+        <v>1.106539875578775</v>
       </c>
       <c r="J14">
-        <v>0.1284880560528432</v>
+        <v>0.3052888949849653</v>
       </c>
       <c r="K14">
-        <v>1.932864816635828</v>
+        <v>0.6049019650940011</v>
       </c>
       <c r="L14">
-        <v>0.3501390387227588</v>
+        <v>0.1984044361193469</v>
       </c>
       <c r="M14">
-        <v>0.3260406593551295</v>
+        <v>0.1938191303800281</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.332622656870001</v>
+        <v>2.902052523962055</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.137282101443901</v>
+        <v>0.7009557258631389</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.130004618698095</v>
+        <v>0.2589325621517489</v>
       </c>
       <c r="E15">
-        <v>0.08584511422010443</v>
+        <v>0.2437346240141016</v>
       </c>
       <c r="F15">
-        <v>0.6092731167567393</v>
+        <v>1.308778127478462</v>
       </c>
       <c r="G15">
-        <v>0.3580851427872958</v>
+        <v>0.6709209647145968</v>
       </c>
       <c r="H15">
-        <v>0.2973516842965438</v>
+        <v>0.7837309697882731</v>
       </c>
       <c r="I15">
-        <v>0.3784967897294926</v>
+        <v>1.107822741067881</v>
       </c>
       <c r="J15">
-        <v>0.128824567305788</v>
+        <v>0.3054713885308029</v>
       </c>
       <c r="K15">
-        <v>1.913434682238915</v>
+        <v>0.5986453549245425</v>
       </c>
       <c r="L15">
-        <v>0.3463714049974982</v>
+        <v>0.1973372234816821</v>
       </c>
       <c r="M15">
-        <v>0.3225569300406121</v>
+        <v>0.1928272904450097</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.330482450024533</v>
+        <v>2.903829303993732</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.067340174511486</v>
+        <v>0.6809960728288615</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.126673205717573</v>
+        <v>0.2587353938672265</v>
       </c>
       <c r="E16">
-        <v>0.08725994303283535</v>
+        <v>0.2447422060997138</v>
       </c>
       <c r="F16">
-        <v>0.6022547191603351</v>
+        <v>1.312579296317736</v>
       </c>
       <c r="G16">
-        <v>0.3520456291182015</v>
+        <v>0.672913510084598</v>
       </c>
       <c r="H16">
-        <v>0.2982004593583127</v>
+        <v>0.7868556139744811</v>
       </c>
       <c r="I16">
-        <v>0.3904331026133914</v>
+        <v>1.115312911935455</v>
       </c>
       <c r="J16">
-        <v>0.1307820709366059</v>
+        <v>0.3065360572357125</v>
       </c>
       <c r="K16">
-        <v>1.802136277451467</v>
+        <v>0.5627439576909694</v>
       </c>
       <c r="L16">
-        <v>0.3248171214301721</v>
+        <v>0.1912307318736737</v>
       </c>
       <c r="M16">
-        <v>0.3026255545104704</v>
+        <v>0.187153151905278</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.319237457699217</v>
+        <v>2.914448836071259</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.024527539124364</v>
+        <v>0.6687847196938321</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1246612520455344</v>
+        <v>0.2586353921561795</v>
       </c>
       <c r="E17">
-        <v>0.08815267205314914</v>
+        <v>0.2453772972189689</v>
       </c>
       <c r="F17">
-        <v>0.5982948868590299</v>
+        <v>1.315074529537952</v>
       </c>
       <c r="G17">
-        <v>0.3486066784091904</v>
+        <v>0.6742416603199644</v>
       </c>
       <c r="H17">
-        <v>0.2988758544803574</v>
+        <v>0.7888529552165551</v>
       </c>
       <c r="I17">
-        <v>0.3979996905801393</v>
+        <v>1.120031590423697</v>
       </c>
       <c r="J17">
-        <v>0.132008777727048</v>
+        <v>0.3072060618695875</v>
       </c>
       <c r="K17">
-        <v>1.733892639380343</v>
+        <v>0.5406781358689159</v>
       </c>
       <c r="L17">
-        <v>0.3116246904942273</v>
+        <v>0.1874930156443497</v>
       </c>
       <c r="M17">
-        <v>0.2904254323918067</v>
+        <v>0.1836810457882052</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.313224853182348</v>
+        <v>2.921354124177839</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9999351459257184</v>
+        <v>0.6617734975332041</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1235154703872112</v>
+        <v>0.2585855965182873</v>
       </c>
       <c r="E18">
-        <v>0.0886751813194202</v>
+        <v>0.2457488307494602</v>
       </c>
       <c r="F18">
-        <v>0.5961409416844816</v>
+        <v>1.316569793883971</v>
       </c>
       <c r="G18">
-        <v>0.3467234018787479</v>
+        <v>0.6750444572814516</v>
       </c>
       <c r="H18">
-        <v>0.2993198359834111</v>
+        <v>0.7900313703016693</v>
       </c>
       <c r="I18">
-        <v>0.4024397743853534</v>
+        <v>1.12279112406298</v>
       </c>
       <c r="J18">
-        <v>0.132723797433524</v>
+        <v>0.3075976385624095</v>
       </c>
       <c r="K18">
-        <v>1.69465009305398</v>
+        <v>0.5279715031124113</v>
       </c>
       <c r="L18">
-        <v>0.3040471036060381</v>
+        <v>0.185346331238037</v>
       </c>
       <c r="M18">
-        <v>0.2834175032127959</v>
+        <v>0.1816872706799657</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.310082780884031</v>
+        <v>2.925469443419047</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9916139084064923</v>
+        <v>0.6594017718503267</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1231294719023239</v>
+        <v>0.2585700650335099</v>
       </c>
       <c r="E19">
-        <v>0.08885363918983025</v>
+        <v>0.2458756991882343</v>
       </c>
       <c r="F19">
-        <v>0.5954325724669474</v>
+        <v>1.317086386471388</v>
       </c>
       <c r="G19">
-        <v>0.3461017392523402</v>
+        <v>0.6753229485295407</v>
       </c>
       <c r="H19">
-        <v>0.2994795704095452</v>
+        <v>0.7904354469941595</v>
       </c>
       <c r="I19">
-        <v>0.4039580630010882</v>
+        <v>1.123733266445033</v>
       </c>
       <c r="J19">
-        <v>0.1329675096210909</v>
+        <v>0.307731286837134</v>
       </c>
       <c r="K19">
-        <v>1.681364555802304</v>
+        <v>0.5236667142077636</v>
       </c>
       <c r="L19">
-        <v>0.3014831637678697</v>
+        <v>0.1846200474278561</v>
       </c>
       <c r="M19">
-        <v>0.2810462629998867</v>
+        <v>0.1810127828694306</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.309072374473487</v>
+        <v>2.926887485003022</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.029081620565933</v>
+        <v>0.6700833577880871</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.124874238727898</v>
+        <v>0.2586452387341183</v>
       </c>
       <c r="E20">
-        <v>0.08805670285066292</v>
+        <v>0.2453090444531068</v>
       </c>
       <c r="F20">
-        <v>0.5987035452352529</v>
+        <v>1.314802691481816</v>
       </c>
       <c r="G20">
-        <v>0.3489628895442536</v>
+        <v>0.6740962525904024</v>
       </c>
       <c r="H20">
-        <v>0.2987981825031483</v>
+        <v>0.788637272161111</v>
       </c>
       <c r="I20">
-        <v>0.3971850706377538</v>
+        <v>1.119524572929052</v>
       </c>
       <c r="J20">
-        <v>0.1318772135834241</v>
+        <v>0.3071340964793148</v>
       </c>
       <c r="K20">
-        <v>1.741156248060719</v>
+        <v>0.5430286346056334</v>
       </c>
       <c r="L20">
-        <v>0.3130279576740662</v>
+        <v>0.1878905770821433</v>
       </c>
       <c r="M20">
-        <v>0.2917231822349891</v>
+        <v>0.1840503183437434</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.313831970839217</v>
+        <v>2.920604185691872</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.155370958885413</v>
+        <v>0.7061190262545836</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1308747352432391</v>
+        <v>0.2589899275975469</v>
       </c>
       <c r="E21">
-        <v>0.08548755178409717</v>
+        <v>0.243479726154308</v>
       </c>
       <c r="F21">
-        <v>0.6111948547297246</v>
+        <v>1.307847201225798</v>
       </c>
       <c r="G21">
-        <v>0.3597292547754947</v>
+        <v>0.6704392314340311</v>
       </c>
       <c r="H21">
-        <v>0.2971814913697841</v>
+        <v>0.7829491080071733</v>
       </c>
       <c r="I21">
-        <v>0.3754919356463677</v>
+        <v>1.105927157699702</v>
       </c>
       <c r="J21">
-        <v>0.1283272061119014</v>
+        <v>0.3052017178505135</v>
       </c>
       <c r="K21">
-        <v>1.942183060730287</v>
+        <v>0.6079013329272414</v>
       </c>
       <c r="L21">
-        <v>0.3519463980547357</v>
+        <v>0.1989163555720523</v>
       </c>
       <c r="M21">
-        <v>0.3277118030399109</v>
+        <v>0.1942949140715626</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.333667326033435</v>
+        <v>2.901208247170985</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.238248507646205</v>
+        <v>0.7297766725986321</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1349032848970353</v>
+        <v>0.2592835056312097</v>
       </c>
       <c r="E22">
-        <v>0.0838904388706263</v>
+        <v>0.2423395953940233</v>
       </c>
       <c r="F22">
-        <v>0.6205335759425452</v>
+        <v>1.303835353075819</v>
       </c>
       <c r="G22">
-        <v>0.3676757765185243</v>
+        <v>0.6683953079213296</v>
       </c>
       <c r="H22">
-        <v>0.2966482763997647</v>
+        <v>0.7794946233434246</v>
       </c>
       <c r="I22">
-        <v>0.3621345708390162</v>
+        <v>1.097445093706575</v>
       </c>
       <c r="J22">
-        <v>0.1260922280797754</v>
+        <v>0.3039938649330569</v>
       </c>
       <c r="K22">
-        <v>2.073719631845222</v>
+        <v>0.650160117922411</v>
       </c>
       <c r="L22">
-        <v>0.3774920837459632</v>
+        <v>0.2061491824386366</v>
       </c>
       <c r="M22">
-        <v>0.3513303806321559</v>
+        <v>0.2010184294565036</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.349648985541648</v>
+        <v>2.88980928066627</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.193981432139651</v>
+        <v>0.7171406315759441</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1327431429950749</v>
+        <v>0.2591205902221674</v>
       </c>
       <c r="E23">
-        <v>0.08473527190993302</v>
+        <v>0.2429430412858578</v>
       </c>
       <c r="F23">
-        <v>0.6154381178930137</v>
+        <v>1.305927740931459</v>
       </c>
       <c r="G23">
-        <v>0.3633479548230554</v>
+        <v>0.6694545191082426</v>
       </c>
       <c r="H23">
-        <v>0.2968835158452947</v>
+        <v>0.7813143010420163</v>
       </c>
       <c r="I23">
-        <v>0.3691867427594637</v>
+        <v>1.10193512201648</v>
       </c>
       <c r="J23">
-        <v>0.1272772360221506</v>
+        <v>0.3046334901818444</v>
       </c>
       <c r="K23">
-        <v>2.003498450861059</v>
+        <v>0.6276188471949808</v>
       </c>
       <c r="L23">
-        <v>0.3638468735367582</v>
+        <v>0.2022864893349237</v>
       </c>
       <c r="M23">
-        <v>0.3387149605808304</v>
+        <v>0.1974274516698529</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.340832975610311</v>
+        <v>2.895776297948885</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.027022655002639</v>
+        <v>0.6694962146528667</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1247779134980078</v>
+        <v>0.2586407631179526</v>
       </c>
       <c r="E24">
-        <v>0.08810006167764328</v>
+        <v>0.2453398815568129</v>
       </c>
       <c r="F24">
-        <v>0.5985184096676477</v>
+        <v>1.314925400314898</v>
       </c>
       <c r="G24">
-        <v>0.348801554979417</v>
+        <v>0.6741618692398177</v>
       </c>
       <c r="H24">
-        <v>0.2988331248644229</v>
+        <v>0.7887346886528022</v>
       </c>
       <c r="I24">
-        <v>0.3975530805361789</v>
+        <v>1.119753650061238</v>
       </c>
       <c r="J24">
-        <v>0.1319366633135175</v>
+        <v>0.3071666121505778</v>
       </c>
       <c r="K24">
-        <v>1.737872397406079</v>
+        <v>0.5419660385307452</v>
       </c>
       <c r="L24">
-        <v>0.3123935192316054</v>
+        <v>0.1877108327570909</v>
       </c>
       <c r="M24">
-        <v>0.2911364507497467</v>
+        <v>0.1838833627793903</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.313556515066139</v>
+        <v>2.920942780031382</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8481382787469727</v>
+        <v>0.6185814559581502</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1166208775713926</v>
+        <v>0.2584187161449023</v>
       </c>
       <c r="E25">
-        <v>0.09207415296089572</v>
+        <v>0.2481641718618084</v>
       </c>
       <c r="F25">
-        <v>0.5849565418334421</v>
+        <v>1.326928076132987</v>
       </c>
       <c r="G25">
-        <v>0.3366976010675629</v>
+        <v>0.6807259968388877</v>
       </c>
       <c r="H25">
-        <v>0.3030434266560107</v>
+        <v>0.7978706472932586</v>
       </c>
       <c r="I25">
-        <v>0.4314952511549013</v>
+        <v>1.140712629830702</v>
       </c>
       <c r="J25">
-        <v>0.1373234028555448</v>
+        <v>0.3101364625965104</v>
       </c>
       <c r="K25">
-        <v>1.451674638397378</v>
+        <v>0.4490071399909255</v>
       </c>
       <c r="L25">
-        <v>0.2572791524652303</v>
+        <v>0.1721097640759126</v>
       </c>
       <c r="M25">
-        <v>0.240161262064877</v>
+        <v>0.1694002564649715</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.296119441298927</v>
+        <v>2.953578938555466</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_115/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_115/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5815181101805535</v>
+        <v>0.7171761120149824</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2585116795059861</v>
+        <v>0.1109621721339238</v>
       </c>
       <c r="E2">
-        <v>0.2504505179193277</v>
+        <v>0.09528943864340267</v>
       </c>
       <c r="F2">
-        <v>1.33774720881091</v>
+        <v>0.5786323093210228</v>
       </c>
       <c r="G2">
-        <v>0.6868381412083053</v>
+        <v>0.3305365933791933</v>
       </c>
       <c r="H2">
-        <v>0.8055745026540748</v>
+        <v>0.3078118824633478</v>
       </c>
       <c r="I2">
-        <v>1.157644453926373</v>
+        <v>0.4591832728336804</v>
       </c>
       <c r="J2">
-        <v>0.312528921303679</v>
+        <v>0.1415956651709731</v>
       </c>
       <c r="K2">
-        <v>0.3800897071573388</v>
+        <v>1.240835538944168</v>
       </c>
       <c r="L2">
-        <v>0.1607306500851848</v>
+        <v>0.2169330176957942</v>
       </c>
       <c r="M2">
-        <v>0.1588489397610502</v>
+        <v>0.2028411108409962</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.982339016526595</v>
+        <v>1.292578852389056</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5566730394012609</v>
+        <v>0.6287578014977839</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2587358577120114</v>
+        <v>0.1073314561374019</v>
       </c>
       <c r="E3">
-        <v>0.2521297022437388</v>
+        <v>0.09764541044962005</v>
       </c>
       <c r="F3">
-        <v>1.34631862052656</v>
+        <v>0.5764573200006211</v>
       </c>
       <c r="G3">
-        <v>0.6917785700691326</v>
+        <v>0.3279222393020618</v>
       </c>
       <c r="H3">
-        <v>0.8114068353509651</v>
+        <v>0.3120174117721817</v>
       </c>
       <c r="I3">
-        <v>1.170057035121193</v>
+        <v>0.4795453263396112</v>
       </c>
       <c r="J3">
-        <v>0.3142794482466726</v>
+        <v>0.1446799084113177</v>
       </c>
       <c r="K3">
-        <v>0.3330988359335549</v>
+        <v>1.097701572312928</v>
       </c>
       <c r="L3">
-        <v>0.1530883114357664</v>
+        <v>0.1896916697637323</v>
       </c>
       <c r="M3">
-        <v>0.1517705615187026</v>
+        <v>0.1776429082075417</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.004785143557854</v>
+        <v>1.295510487846983</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5415558991641944</v>
+        <v>0.5745949456087942</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.258953428226107</v>
+        <v>0.1051991084199031</v>
       </c>
       <c r="E4">
-        <v>0.2532249301666196</v>
+        <v>0.09917815620294235</v>
       </c>
       <c r="F4">
-        <v>1.352193804510605</v>
+        <v>0.5761092737962414</v>
       </c>
       <c r="G4">
-        <v>0.6952058585001524</v>
+        <v>0.327038742102566</v>
       </c>
       <c r="H4">
-        <v>0.8152900886719507</v>
+        <v>0.3150592003513566</v>
       </c>
       <c r="I4">
-        <v>1.178141614937447</v>
+        <v>0.4928090933379892</v>
       </c>
       <c r="J4">
-        <v>0.3154182300694632</v>
+        <v>0.1466661729741396</v>
       </c>
       <c r="K4">
-        <v>0.3041096839027091</v>
+        <v>1.0096433773478</v>
       </c>
       <c r="L4">
-        <v>0.1484309459015094</v>
+        <v>0.1730021319985298</v>
       </c>
       <c r="M4">
-        <v>0.1474609386160033</v>
+        <v>0.1622059120331407</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.020026365641769</v>
+        <v>1.299794174210604</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5354308082936541</v>
+        <v>0.5525497869464289</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2590622571117152</v>
+        <v>0.1043540109795345</v>
       </c>
       <c r="E5">
-        <v>0.2536874194897627</v>
+        <v>0.09982426553366963</v>
       </c>
       <c r="F5">
-        <v>1.354742128808944</v>
+        <v>0.5762081089388502</v>
       </c>
       <c r="G5">
-        <v>0.6967015723532413</v>
+        <v>0.3268533602902082</v>
       </c>
       <c r="H5">
-        <v>0.8169486217998738</v>
+        <v>0.3164113611106458</v>
       </c>
       <c r="I5">
-        <v>1.181552702370166</v>
+        <v>0.4984017747227227</v>
       </c>
       <c r="J5">
-        <v>0.3158984092880495</v>
+        <v>0.1474987591893777</v>
       </c>
       <c r="K5">
-        <v>0.2922628479828973</v>
+        <v>0.9737087632091743</v>
       </c>
       <c r="L5">
-        <v>0.1465420147388272</v>
+        <v>0.1662085009050784</v>
       </c>
       <c r="M5">
-        <v>0.1457140838088655</v>
+        <v>0.1559224515248587</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.026604466560215</v>
+        <v>1.302143653706636</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5344158895120188</v>
+        <v>0.5488906700847735</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2590815481550237</v>
+        <v>0.1042151089253807</v>
       </c>
       <c r="E6">
-        <v>0.2537651933327747</v>
+        <v>0.0999328454816486</v>
       </c>
       <c r="F6">
-        <v>1.355174590751155</v>
+        <v>0.5762388388270949</v>
       </c>
       <c r="G6">
-        <v>0.6969559187308789</v>
+        <v>0.3268329316112357</v>
       </c>
       <c r="H6">
-        <v>0.817228617430608</v>
+        <v>0.3166426033934187</v>
       </c>
       <c r="I6">
-        <v>1.182126152826072</v>
+        <v>0.4993416545923353</v>
       </c>
       <c r="J6">
-        <v>0.3159791171116169</v>
+        <v>0.1476384059131277</v>
       </c>
       <c r="K6">
-        <v>0.2902936894773234</v>
+        <v>0.9677386323589303</v>
       </c>
       <c r="L6">
-        <v>0.1462289066227171</v>
+        <v>0.1650808266915931</v>
       </c>
       <c r="M6">
-        <v>0.1454245895884476</v>
+        <v>0.1548794824609772</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.027718939238994</v>
+        <v>1.302569664350429</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5414731504479846</v>
+        <v>0.5742975355749422</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2589548141811662</v>
+        <v>0.1051876152395934</v>
       </c>
       <c r="E7">
-        <v>0.2532311019256479</v>
+        <v>0.09918678300870498</v>
       </c>
       <c r="F7">
-        <v>1.352227547772777</v>
+        <v>0.5761096421262053</v>
       </c>
       <c r="G7">
-        <v>0.6952256290655967</v>
+        <v>0.3270355436549934</v>
       </c>
       <c r="H7">
-        <v>0.8153121480801389</v>
+        <v>0.3150769839395622</v>
       </c>
       <c r="I7">
-        <v>1.178187146020971</v>
+        <v>0.4928837636622703</v>
       </c>
       <c r="J7">
-        <v>0.315424640632596</v>
+        <v>0.1466773078471011</v>
       </c>
       <c r="K7">
-        <v>0.3039500479681578</v>
+        <v>1.009158962181573</v>
       </c>
       <c r="L7">
-        <v>0.1484054345218908</v>
+        <v>0.1729104826300869</v>
       </c>
       <c r="M7">
-        <v>0.1474373418371329</v>
+        <v>0.1621211437064751</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.020113593185641</v>
+        <v>1.29982344190627</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5729232778226674</v>
+        <v>0.6866600574554411</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2585724292192921</v>
+        <v>0.1096898625239149</v>
       </c>
       <c r="E8">
-        <v>0.2510161942537454</v>
+        <v>0.09608379286545432</v>
       </c>
       <c r="F8">
-        <v>1.340575650025499</v>
+        <v>0.5776727528747827</v>
       </c>
       <c r="G8">
-        <v>0.6884598763776992</v>
+        <v>0.3294811699272344</v>
       </c>
       <c r="H8">
-        <v>0.8075228286552445</v>
+        <v>0.3091647466292144</v>
       </c>
       <c r="I8">
-        <v>1.161828222301992</v>
+        <v>0.4660437172389962</v>
       </c>
       <c r="J8">
-        <v>0.3131192512326528</v>
+        <v>0.1426398477878337</v>
       </c>
       <c r="K8">
-        <v>0.3639160766316536</v>
+        <v>1.191514789506527</v>
       </c>
       <c r="L8">
-        <v>0.1580883921277803</v>
+        <v>0.2075314790097451</v>
       </c>
       <c r="M8">
-        <v>0.1564008301317301</v>
+        <v>0.1941446053220979</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.989775731013623</v>
+        <v>1.293061482371243</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6356671859668097</v>
+        <v>0.9082609157659931</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2584538320829211</v>
+        <v>0.1193129267023352</v>
       </c>
       <c r="E9">
-        <v>0.2471807661358874</v>
+        <v>0.09069008127599609</v>
       </c>
       <c r="F9">
-        <v>1.322577531411817</v>
+        <v>0.5889321974978969</v>
       </c>
       <c r="G9">
-        <v>0.6783162201414186</v>
+        <v>0.3403259953509803</v>
       </c>
       <c r="H9">
-        <v>0.794641647540864</v>
+        <v>0.3013567355561833</v>
       </c>
       <c r="I9">
-        <v>1.133419866862649</v>
+        <v>0.4196312430794791</v>
       </c>
       <c r="J9">
-        <v>0.3091042017560053</v>
+        <v>0.1354610544861892</v>
       </c>
       <c r="K9">
-        <v>0.4803950727335859</v>
+        <v>1.548073620647898</v>
       </c>
       <c r="L9">
-        <v>0.1773485178225656</v>
+        <v>0.275801877594489</v>
       </c>
       <c r="M9">
-        <v>0.1742617088171912</v>
+        <v>0.2572938983474309</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.941851184812904</v>
+        <v>1.300483748618049</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6823911418564421</v>
+        <v>1.072229944345253</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2587478496193043</v>
+        <v>0.1269043504940157</v>
       </c>
       <c r="E10">
-        <v>0.2446705834939369</v>
+        <v>0.0871593058009319</v>
       </c>
       <c r="F10">
-        <v>1.31230270952058</v>
+        <v>0.6027235626011276</v>
       </c>
       <c r="G10">
-        <v>0.6727672270417742</v>
+        <v>0.3524510922551229</v>
       </c>
       <c r="H10">
-        <v>0.7866317122508093</v>
+        <v>0.2981310102484187</v>
       </c>
       <c r="I10">
-        <v>1.114780638764771</v>
+        <v>0.3895817465796707</v>
       </c>
       <c r="J10">
-        <v>0.3064604454918385</v>
+        <v>0.1306433790455799</v>
       </c>
       <c r="K10">
-        <v>0.5652597741511443</v>
+        <v>1.809924854708186</v>
       </c>
       <c r="L10">
-        <v>0.1916576541371313</v>
+        <v>0.3263239316104602</v>
       </c>
       <c r="M10">
-        <v>0.1875497848670022</v>
+        <v>0.3040189789293706</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.913680346266389</v>
+        <v>1.319967055376836</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7037777035786519</v>
+        <v>1.147168607483735</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.258963603890848</v>
+        <v>0.1304797623316816</v>
       </c>
       <c r="E11">
-        <v>0.2435950295724671</v>
+        <v>0.08564927551882207</v>
       </c>
       <c r="F11">
-        <v>1.308266770087684</v>
+        <v>0.6103181436008072</v>
       </c>
       <c r="G11">
-        <v>0.6706560248781628</v>
+        <v>0.3589796385316717</v>
       </c>
       <c r="H11">
-        <v>0.7833023529919245</v>
+        <v>0.2972562133377465</v>
       </c>
       <c r="I11">
-        <v>1.106784662522516</v>
+        <v>0.3768503987028176</v>
       </c>
       <c r="J11">
-        <v>0.3053237203757995</v>
+        <v>0.1285522943789861</v>
       </c>
       <c r="K11">
-        <v>0.6037056947639599</v>
+        <v>1.929148971183594</v>
       </c>
       <c r="L11">
-        <v>0.1982003169178626</v>
+        <v>0.3494184044462685</v>
       </c>
       <c r="M11">
-        <v>0.1936294231066711</v>
+        <v>0.3253743327774004</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.902390605937569</v>
+        <v>1.332209369458326</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7118946106535304</v>
+        <v>1.175603945463394</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2590570291962706</v>
+        <v>0.1318519670178091</v>
       </c>
       <c r="E12">
-        <v>0.2431972532874198</v>
+        <v>0.08509150510961749</v>
       </c>
       <c r="F12">
-        <v>1.306830067675527</v>
+        <v>0.6133946913482831</v>
       </c>
       <c r="G12">
-        <v>0.6699159460672064</v>
+        <v>0.3616071532310059</v>
       </c>
       <c r="H12">
-        <v>0.7820867339534061</v>
+        <v>0.2970143737588984</v>
       </c>
       <c r="I12">
-        <v>1.103826183464442</v>
+        <v>0.3721695943119006</v>
       </c>
       <c r="J12">
-        <v>0.3049027173421575</v>
+        <v>0.1277750432907343</v>
       </c>
       <c r="K12">
-        <v>0.6182405071879202</v>
+        <v>1.974322063741056</v>
       </c>
       <c r="L12">
-        <v>0.2006825007984361</v>
+        <v>0.3581824620915768</v>
       </c>
       <c r="M12">
-        <v>0.1959364816366786</v>
+        <v>0.3334777466016305</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.89833459457148</v>
+        <v>1.337360513763798</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7101456866970466</v>
+        <v>1.169477194375901</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2590363880500348</v>
+        <v>0.1315556134932336</v>
       </c>
       <c r="E13">
-        <v>0.2432824988799185</v>
+        <v>0.08521100266450432</v>
       </c>
       <c r="F13">
-        <v>1.307135414674789</v>
+        <v>0.6127230008982139</v>
       </c>
       <c r="G13">
-        <v>0.6700726941725605</v>
+        <v>0.3610342042264563</v>
       </c>
       <c r="H13">
-        <v>0.7823465329469599</v>
+        <v>0.2970624112105185</v>
       </c>
       <c r="I13">
-        <v>1.104460257957044</v>
+        <v>0.3731713620286197</v>
       </c>
       <c r="J13">
-        <v>0.3049929680730923</v>
+        <v>0.1279417866053798</v>
       </c>
       <c r="K13">
-        <v>0.6151112490206856</v>
+        <v>1.964591925793428</v>
       </c>
       <c r="L13">
-        <v>0.200147715473193</v>
+        <v>0.3562940910561423</v>
       </c>
       <c r="M13">
-        <v>0.1954394032287823</v>
+        <v>0.3317317556567261</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.899198384347471</v>
+        <v>1.336227721776339</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7044451237258613</v>
+        <v>1.149506798287234</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2589710554741629</v>
+        <v>0.1305922839111062</v>
       </c>
       <c r="E14">
-        <v>0.2435621137852308</v>
+        <v>0.08560310462536869</v>
       </c>
       <c r="F14">
-        <v>1.308146736323238</v>
+        <v>0.6105671682797293</v>
       </c>
       <c r="G14">
-        <v>0.6705939479939218</v>
+        <v>0.3591926360397153</v>
       </c>
       <c r="H14">
-        <v>0.7832014390874349</v>
+        <v>0.2972344997851195</v>
       </c>
       <c r="I14">
-        <v>1.106539875578775</v>
+        <v>0.3764624630140307</v>
       </c>
       <c r="J14">
-        <v>0.3052888949849653</v>
+        <v>0.1284880560529889</v>
       </c>
       <c r="K14">
-        <v>0.6049019650940011</v>
+        <v>1.932864816635885</v>
       </c>
       <c r="L14">
-        <v>0.1984044361193469</v>
+        <v>0.3501390387227161</v>
       </c>
       <c r="M14">
-        <v>0.1938191303800281</v>
+        <v>0.3260406593551224</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.902052523962055</v>
+        <v>1.332622656869944</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7009557258631389</v>
+        <v>1.137282101443958</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2589325621517489</v>
+        <v>0.1300046186979458</v>
       </c>
       <c r="E15">
-        <v>0.2437346240141016</v>
+        <v>0.08584511422012397</v>
       </c>
       <c r="F15">
-        <v>1.308778127478462</v>
+        <v>0.6092731167567607</v>
       </c>
       <c r="G15">
-        <v>0.6709209647145968</v>
+        <v>0.3580851427872318</v>
       </c>
       <c r="H15">
-        <v>0.7837309697882731</v>
+        <v>0.2973516842965438</v>
       </c>
       <c r="I15">
-        <v>1.107822741067881</v>
+        <v>0.3784967897294838</v>
       </c>
       <c r="J15">
-        <v>0.3054713885308029</v>
+        <v>0.1288245673058253</v>
       </c>
       <c r="K15">
-        <v>0.5986453549245425</v>
+        <v>1.913434682238915</v>
       </c>
       <c r="L15">
-        <v>0.1973372234816821</v>
+        <v>0.3463714049973703</v>
       </c>
       <c r="M15">
-        <v>0.1928272904450097</v>
+        <v>0.3225569300406121</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.903829303993732</v>
+        <v>1.330482450024505</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6809960728288615</v>
+        <v>1.067340174511656</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2587353938672265</v>
+        <v>0.1266732057174593</v>
       </c>
       <c r="E16">
-        <v>0.2447422060997138</v>
+        <v>0.08725994303282114</v>
       </c>
       <c r="F16">
-        <v>1.312579296317736</v>
+        <v>0.6022547191603351</v>
       </c>
       <c r="G16">
-        <v>0.672913510084598</v>
+        <v>0.3520456291182015</v>
       </c>
       <c r="H16">
-        <v>0.7868556139744811</v>
+        <v>0.2982004593583127</v>
       </c>
       <c r="I16">
-        <v>1.115312911935455</v>
+        <v>0.3904331026133843</v>
       </c>
       <c r="J16">
-        <v>0.3065360572357125</v>
+        <v>0.1307820709366005</v>
       </c>
       <c r="K16">
-        <v>0.5627439576909694</v>
+        <v>1.802136277451524</v>
       </c>
       <c r="L16">
-        <v>0.1912307318736737</v>
+        <v>0.3248171214301721</v>
       </c>
       <c r="M16">
-        <v>0.187153151905278</v>
+        <v>0.3026255545104632</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.914448836071259</v>
+        <v>1.319237457699273</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6687847196938321</v>
+        <v>1.02452753912425</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2586353921561795</v>
+        <v>0.1246612520454917</v>
       </c>
       <c r="E17">
-        <v>0.2453772972189689</v>
+        <v>0.08815267205312072</v>
       </c>
       <c r="F17">
-        <v>1.315074529537952</v>
+        <v>0.5982948868590299</v>
       </c>
       <c r="G17">
-        <v>0.6742416603199644</v>
+        <v>0.3486066784092472</v>
       </c>
       <c r="H17">
-        <v>0.7888529552165551</v>
+        <v>0.2988758544803574</v>
       </c>
       <c r="I17">
-        <v>1.120031590423697</v>
+        <v>0.3979996905801393</v>
       </c>
       <c r="J17">
-        <v>0.3072060618695875</v>
+        <v>0.1320087777270533</v>
       </c>
       <c r="K17">
-        <v>0.5406781358689159</v>
+        <v>1.733892639380372</v>
       </c>
       <c r="L17">
-        <v>0.1874930156443497</v>
+        <v>0.3116246904943551</v>
       </c>
       <c r="M17">
-        <v>0.1836810457882052</v>
+        <v>0.2904254323917854</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.921354124177839</v>
+        <v>1.313224853182348</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6617734975332041</v>
+        <v>0.9999351459258321</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2585855965182873</v>
+        <v>0.1235154703871331</v>
       </c>
       <c r="E18">
-        <v>0.2457488307494602</v>
+        <v>0.08867518131943264</v>
       </c>
       <c r="F18">
-        <v>1.316569793883971</v>
+        <v>0.5961409416844887</v>
       </c>
       <c r="G18">
-        <v>0.6750444572814516</v>
+        <v>0.3467234018786982</v>
       </c>
       <c r="H18">
-        <v>0.7900313703016693</v>
+        <v>0.2993198359834182</v>
       </c>
       <c r="I18">
-        <v>1.12279112406298</v>
+        <v>0.4024397743853694</v>
       </c>
       <c r="J18">
-        <v>0.3075976385624095</v>
+        <v>0.1327237974336288</v>
       </c>
       <c r="K18">
-        <v>0.5279715031124113</v>
+        <v>1.694650093053923</v>
       </c>
       <c r="L18">
-        <v>0.185346331238037</v>
+        <v>0.3040471036060239</v>
       </c>
       <c r="M18">
-        <v>0.1816872706799657</v>
+        <v>0.2834175032128172</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.925469443419047</v>
+        <v>1.310082780884017</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6594017718503267</v>
+        <v>0.9916139084064923</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2585700650335099</v>
+        <v>0.1231294719023666</v>
       </c>
       <c r="E19">
-        <v>0.2458756991882343</v>
+        <v>0.08885363918984357</v>
       </c>
       <c r="F19">
-        <v>1.317086386471388</v>
+        <v>0.5954325724669474</v>
       </c>
       <c r="G19">
-        <v>0.6753229485295407</v>
+        <v>0.3461017392522763</v>
       </c>
       <c r="H19">
-        <v>0.7904354469941595</v>
+        <v>0.2994795704096589</v>
       </c>
       <c r="I19">
-        <v>1.123733266445033</v>
+        <v>0.4039580630010882</v>
       </c>
       <c r="J19">
-        <v>0.307731286837134</v>
+        <v>0.13296750962121</v>
       </c>
       <c r="K19">
-        <v>0.5236667142077636</v>
+        <v>1.681364555802304</v>
       </c>
       <c r="L19">
-        <v>0.1846200474278561</v>
+        <v>0.3014831637679265</v>
       </c>
       <c r="M19">
-        <v>0.1810127828694306</v>
+        <v>0.2810462629999151</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.926887485003022</v>
+        <v>1.309072374473487</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6700833577880871</v>
+        <v>1.029081620565961</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2586452387341183</v>
+        <v>0.1248742387280757</v>
       </c>
       <c r="E20">
-        <v>0.2453090444531068</v>
+        <v>0.08805670285065048</v>
       </c>
       <c r="F20">
-        <v>1.314802691481816</v>
+        <v>0.5987035452352671</v>
       </c>
       <c r="G20">
-        <v>0.6740962525904024</v>
+        <v>0.3489628895442607</v>
       </c>
       <c r="H20">
-        <v>0.788637272161111</v>
+        <v>0.2987981825030346</v>
       </c>
       <c r="I20">
-        <v>1.119524572929052</v>
+        <v>0.3971850706377484</v>
       </c>
       <c r="J20">
-        <v>0.3071340964793148</v>
+        <v>0.1318772135834525</v>
       </c>
       <c r="K20">
-        <v>0.5430286346056334</v>
+        <v>1.741156248060747</v>
       </c>
       <c r="L20">
-        <v>0.1878905770821433</v>
+        <v>0.3130279576740662</v>
       </c>
       <c r="M20">
-        <v>0.1840503183437434</v>
+        <v>0.2917231822350104</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.920604185691872</v>
+        <v>1.313831970839232</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7061190262545836</v>
+        <v>1.155370958885413</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2589899275975469</v>
+        <v>0.1308747352434665</v>
       </c>
       <c r="E21">
-        <v>0.243479726154308</v>
+        <v>0.08548755178413359</v>
       </c>
       <c r="F21">
-        <v>1.307847201225798</v>
+        <v>0.6111948547297317</v>
       </c>
       <c r="G21">
-        <v>0.6704392314340311</v>
+        <v>0.359729254775587</v>
       </c>
       <c r="H21">
-        <v>0.7829491080071733</v>
+        <v>0.2971814913697841</v>
       </c>
       <c r="I21">
-        <v>1.105927157699702</v>
+        <v>0.3754919356463624</v>
       </c>
       <c r="J21">
-        <v>0.3052017178505135</v>
+        <v>0.128327206111857</v>
       </c>
       <c r="K21">
-        <v>0.6079013329272414</v>
+        <v>1.942183060730429</v>
       </c>
       <c r="L21">
-        <v>0.1989163555720523</v>
+        <v>0.3519463980547357</v>
       </c>
       <c r="M21">
-        <v>0.1942949140715626</v>
+        <v>0.327711803039918</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.901208247170985</v>
+        <v>1.333667326033463</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7297766725986321</v>
+        <v>1.238248507646091</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2592835056312097</v>
+        <v>0.1349032848970353</v>
       </c>
       <c r="E22">
-        <v>0.2423395953940233</v>
+        <v>0.0838904388706414</v>
       </c>
       <c r="F22">
-        <v>1.303835353075819</v>
+        <v>0.6205335759425452</v>
       </c>
       <c r="G22">
-        <v>0.6683953079213296</v>
+        <v>0.3676757765185386</v>
       </c>
       <c r="H22">
-        <v>0.7794946233434246</v>
+        <v>0.2966482763997647</v>
       </c>
       <c r="I22">
-        <v>1.097445093706575</v>
+        <v>0.362134570839002</v>
       </c>
       <c r="J22">
-        <v>0.3039938649330569</v>
+        <v>0.1260922280798571</v>
       </c>
       <c r="K22">
-        <v>0.650160117922411</v>
+        <v>2.073719631845108</v>
       </c>
       <c r="L22">
-        <v>0.2061491824386366</v>
+        <v>0.3774920837459774</v>
       </c>
       <c r="M22">
-        <v>0.2010184294565036</v>
+        <v>0.3513303806321417</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.88980928066627</v>
+        <v>1.349648985541648</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7171406315759441</v>
+        <v>1.193981432139651</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2591205902221674</v>
+        <v>0.1327431429951247</v>
       </c>
       <c r="E23">
-        <v>0.2429430412858578</v>
+        <v>0.08473527190996322</v>
       </c>
       <c r="F23">
-        <v>1.305927740931459</v>
+        <v>0.6154381178930066</v>
       </c>
       <c r="G23">
-        <v>0.6694545191082426</v>
+        <v>0.3633479548229701</v>
       </c>
       <c r="H23">
-        <v>0.7813143010420163</v>
+        <v>0.2968835158454084</v>
       </c>
       <c r="I23">
-        <v>1.10193512201648</v>
+        <v>0.3691867427594566</v>
       </c>
       <c r="J23">
-        <v>0.3046334901818444</v>
+        <v>0.1272772360221808</v>
       </c>
       <c r="K23">
-        <v>0.6276188471949808</v>
+        <v>2.003498450860917</v>
       </c>
       <c r="L23">
-        <v>0.2022864893349237</v>
+        <v>0.3638468735369145</v>
       </c>
       <c r="M23">
-        <v>0.1974274516698529</v>
+        <v>0.3387149605808162</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.895776297948885</v>
+        <v>1.340832975610255</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6694962146528667</v>
+        <v>1.027022655002753</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2586407631179526</v>
+        <v>0.1247779134981073</v>
       </c>
       <c r="E24">
-        <v>0.2453398815568129</v>
+        <v>0.08810006167765483</v>
       </c>
       <c r="F24">
-        <v>1.314925400314898</v>
+        <v>0.5985184096676335</v>
       </c>
       <c r="G24">
-        <v>0.6741618692398177</v>
+        <v>0.3488015549794099</v>
       </c>
       <c r="H24">
-        <v>0.7887346886528022</v>
+        <v>0.2988331248644229</v>
       </c>
       <c r="I24">
-        <v>1.119753650061238</v>
+        <v>0.3975530805361736</v>
       </c>
       <c r="J24">
-        <v>0.3071666121505778</v>
+        <v>0.1319366633134926</v>
       </c>
       <c r="K24">
-        <v>0.5419660385307452</v>
+        <v>1.737872397405937</v>
       </c>
       <c r="L24">
-        <v>0.1877108327570909</v>
+        <v>0.3123935192315344</v>
       </c>
       <c r="M24">
-        <v>0.1838833627793903</v>
+        <v>0.2911364507497467</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.920942780031382</v>
+        <v>1.313556515066125</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6185814559581502</v>
+        <v>0.8481382787468874</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2584187161449023</v>
+        <v>0.1166208775714637</v>
       </c>
       <c r="E25">
-        <v>0.2481641718618084</v>
+        <v>0.09207415296089572</v>
       </c>
       <c r="F25">
-        <v>1.326928076132987</v>
+        <v>0.584956541833435</v>
       </c>
       <c r="G25">
-        <v>0.6807259968388877</v>
+        <v>0.3366976010674918</v>
       </c>
       <c r="H25">
-        <v>0.7978706472932586</v>
+        <v>0.3030434266561244</v>
       </c>
       <c r="I25">
-        <v>1.140712629830702</v>
+        <v>0.4314952511549155</v>
       </c>
       <c r="J25">
-        <v>0.3101364625965104</v>
+        <v>0.1373234028555235</v>
       </c>
       <c r="K25">
-        <v>0.4490071399909255</v>
+        <v>1.451674638397321</v>
       </c>
       <c r="L25">
-        <v>0.1721097640759126</v>
+        <v>0.2572791524652303</v>
       </c>
       <c r="M25">
-        <v>0.1694002564649715</v>
+        <v>0.2401612620648521</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.953578938555466</v>
+        <v>1.29611944129887</v>
       </c>
     </row>
   </sheetData>
